--- a/medicine/Mort/Cimetière_de_Grenelle/Cimetière_de_Grenelle.xlsx
+++ b/medicine/Mort/Cimetière_de_Grenelle/Cimetière_de_Grenelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Grenelle</t>
+          <t>Cimetière_de_Grenelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Grenelle est l'ancien cimetière de la commune de Grenelle, actuellement dans le 15e arrondissement de Paris.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Grenelle</t>
+          <t>Cimetière_de_Grenelle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se situe 174 rue Saint-Charles, à l'angle de la rue Cauchy.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Grenelle</t>
+          <t>Cimetière_de_Grenelle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">D'une superficie de 64 ares, il a été créé en 1835 à la suite de la séparation de Grenelle d'avec Vaugirard et annexé à la ville de Paris en 1860.
 Ce cimetière ne compte qu'un millier de sépultures. Les plus originales sont celles des familles Rémondot et Schmid. Marius Rémondot (1867-1921) et Henri Schmid (1872-1927), tous les deux sculpteurs, avaient épousé deux sœurs Schmitz : Marius avait épousé Jeanne (1871-1940) et Henri avait épousé Joséphine (1880-1969), deux des onze enfants des parents Schmitz dont la tombe est voisine.
-Durant la guerre de 1870, 1 456 soldats y ont été enterrés sans être enregistrés, de même, en 1871, lors de la semaine sanglante, pour 30 communards[1]. 
+Durant la guerre de 1870, 1 456 soldats y ont été enterrés sans être enregistrés, de même, en 1871, lors de la semaine sanglante, pour 30 communards. 
 			Détail de la tombe de la famille Rémondot.
 			Détail de la tombe de la famille Schmid.
 			Tombe de la famille Schmid.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Grenelle</t>
+          <t>Cimetière_de_Grenelle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
